--- a/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/UMap/m1_results_UMap.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/UMap/m1_results_UMap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4807,6 +4807,834 @@
         <v>1338.412422004283</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:29</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>10</v>
+      </c>
+      <c r="E191" t="n">
+        <v>327.9163126798707</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:29</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>10</v>
+      </c>
+      <c r="E192" t="n">
+        <v>383.8087181260709</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:29</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>10</v>
+      </c>
+      <c r="E193" t="n">
+        <v>377.6313738371288</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:29</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>10</v>
+      </c>
+      <c r="E194" t="n">
+        <v>240.49561539538</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:29</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>10</v>
+      </c>
+      <c r="E195" t="n">
+        <v>341.938791864331</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:29</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>10</v>
+      </c>
+      <c r="E196" t="n">
+        <v>639.6785897617817</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:30</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>10</v>
+      </c>
+      <c r="E197" t="n">
+        <v>353.3013859823798</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:30</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20</v>
+      </c>
+      <c r="E198" t="n">
+        <v>649.5895881120642</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:30</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>10</v>
+      </c>
+      <c r="E199" t="n">
+        <v>343.3843535635364</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:30</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20</v>
+      </c>
+      <c r="E200" t="n">
+        <v>645.5245582474438</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:30</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20</v>
+      </c>
+      <c r="E201" t="n">
+        <v>610.2972736929402</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:30</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20</v>
+      </c>
+      <c r="E202" t="n">
+        <v>642.8362613162063</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:30</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20</v>
+      </c>
+      <c r="E203" t="n">
+        <v>832.7161550174501</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:31</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20</v>
+      </c>
+      <c r="E204" t="n">
+        <v>620.5788724078254</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:31</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20</v>
+      </c>
+      <c r="E205" t="n">
+        <v>569.9019976041708</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:31</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20</v>
+      </c>
+      <c r="E206" t="n">
+        <v>577.5967446517869</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:31</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>10</v>
+      </c>
+      <c r="E207" t="n">
+        <v>318.353509847848</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:31</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20</v>
+      </c>
+      <c r="E208" t="n">
+        <v>968.98071089194</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:31</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>30</v>
+      </c>
+      <c r="E209" t="n">
+        <v>843.6786016449133</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:32</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>40</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1121.141390089806</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:32</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>40</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1144.915338692704</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:32</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>30</v>
+      </c>
+      <c r="E212" t="n">
+        <v>828.1624513510438</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:32</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>30</v>
+      </c>
+      <c r="E213" t="n">
+        <v>970.921207006002</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:32</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>40</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1192.21006259929</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:32</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>30</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1003.866085537018</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:32</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>40</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1203.24218690097</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:33</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>30</v>
+      </c>
+      <c r="E217" t="n">
+        <v>870.4034118661681</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:33</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>30</v>
+      </c>
+      <c r="E218" t="n">
+        <v>862.544538451858</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:33</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>30</v>
+      </c>
+      <c r="E219" t="n">
+        <v>858.2066333212081</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:33</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>30</v>
+      </c>
+      <c r="E220" t="n">
+        <v>858.0309278398564</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:33</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>30</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1140.464697214593</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:34</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>40</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1437.438961413374</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:34</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>40</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1095.055386883123</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:34</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>40</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1211.688976834227</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:34</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>40</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1187.572505576021</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:34</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>40</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1111.725865752564</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/UMap/m1_results_UMap.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/UMap/m1_results_UMap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5635,6 +5635,2076 @@
         <v>1111.725865752564</v>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:35</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>10</v>
+      </c>
+      <c r="E227" t="n">
+        <v>350.5028325657359</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:36</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>10</v>
+      </c>
+      <c r="E228" t="n">
+        <v>368.0817724479903</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:36</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>10</v>
+      </c>
+      <c r="E229" t="n">
+        <v>303.1124141631078</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:36</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>10</v>
+      </c>
+      <c r="E230" t="n">
+        <v>306.6353534992962</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:36</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>10</v>
+      </c>
+      <c r="E231" t="n">
+        <v>421.9030965566371</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:36</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>10</v>
+      </c>
+      <c r="E232" t="n">
+        <v>331.3347063656402</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:36</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>10</v>
+      </c>
+      <c r="E233" t="n">
+        <v>421.4915437901693</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:37</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>10</v>
+      </c>
+      <c r="E234" t="n">
+        <v>283.0170036981232</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:37</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>10</v>
+      </c>
+      <c r="E235" t="n">
+        <v>416.3691942762995</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:23:58</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>10</v>
+      </c>
+      <c r="E236" t="n">
+        <v>421.4915437901693</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:23:59</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="n">
+        <v>368.0817724479903</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:23:59</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>10</v>
+      </c>
+      <c r="E238" t="n">
+        <v>331.3347063656402</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:23:59</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>10</v>
+      </c>
+      <c r="E239" t="n">
+        <v>350.5028325657359</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:23:59</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>10</v>
+      </c>
+      <c r="E240" t="n">
+        <v>306.6353534992962</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:23:59</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>10</v>
+      </c>
+      <c r="E241" t="n">
+        <v>283.0170036981232</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:23:59</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>10</v>
+      </c>
+      <c r="E242" t="n">
+        <v>421.9030965566371</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>10</v>
+      </c>
+      <c r="E243" t="n">
+        <v>416.3691942762995</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>10</v>
+      </c>
+      <c r="E244" t="n">
+        <v>303.1124141631078</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:47</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>234.6193088265686</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:47</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>3</v>
+      </c>
+      <c r="E246" t="n">
+        <v>152.0578824408134</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:47</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>3</v>
+      </c>
+      <c r="E247" t="n">
+        <v>187.7297989808738</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:48</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+      <c r="E248" t="n">
+        <v>243.9728320331053</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:48</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>1</v>
+      </c>
+      <c r="E249" t="n">
+        <v>225.2600340614096</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:48</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+      <c r="E250" t="n">
+        <v>269.717565360892</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:48</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>3</v>
+      </c>
+      <c r="E251" t="n">
+        <v>175.2125701968181</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:48</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>2</v>
+      </c>
+      <c r="E252" t="n">
+        <v>95.02867125292212</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:49</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>5</v>
+      </c>
+      <c r="E253" t="n">
+        <v>189.3515116907516</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:49</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>2</v>
+      </c>
+      <c r="E254" t="n">
+        <v>154.0986009595754</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:49</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>3</v>
+      </c>
+      <c r="E255" t="n">
+        <v>142.2428774554913</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:50</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>2</v>
+      </c>
+      <c r="E256" t="n">
+        <v>164.6749394322512</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:50</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>2</v>
+      </c>
+      <c r="E257" t="n">
+        <v>159.5282252853931</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:50</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>5</v>
+      </c>
+      <c r="E258" t="n">
+        <v>207.7115514601756</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:50</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>3</v>
+      </c>
+      <c r="E259" t="n">
+        <v>94.88894051753742</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:51</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
+      <c r="E260" t="n">
+        <v>265.9063802402259</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:51</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>5</v>
+      </c>
+      <c r="E261" t="n">
+        <v>189.488823873106</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:51</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>3</v>
+      </c>
+      <c r="E262" t="n">
+        <v>153.1729166241611</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:51</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>2</v>
+      </c>
+      <c r="E263" t="n">
+        <v>148.5598551922207</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:51</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>5</v>
+      </c>
+      <c r="E264" t="n">
+        <v>239.4669646879057</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:52</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>2</v>
+      </c>
+      <c r="E265" t="n">
+        <v>180.95181595063</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:52</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>3</v>
+      </c>
+      <c r="E266" t="n">
+        <v>152.0020505717328</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:52</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+      <c r="E267" t="n">
+        <v>233.5877816642584</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:53</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>3</v>
+      </c>
+      <c r="E268" t="n">
+        <v>142.9096294096478</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:53</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>2</v>
+      </c>
+      <c r="E269" t="n">
+        <v>135.7891931965991</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:53</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>5</v>
+      </c>
+      <c r="E270" t="n">
+        <v>201.0406168743595</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:53</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>2</v>
+      </c>
+      <c r="E271" t="n">
+        <v>163.3831149639882</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:54</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>3</v>
+      </c>
+      <c r="E272" t="n">
+        <v>145.6368756526494</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:54</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>2</v>
+      </c>
+      <c r="E273" t="n">
+        <v>146.7282472785114</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:54</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="n">
+        <v>201.8638231236206</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:54</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>1</v>
+      </c>
+      <c r="E275" t="n">
+        <v>171.1777899565496</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:55</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" t="n">
+        <v>190.3736062000104</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:55</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>122.4481994433494</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:55</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>5</v>
+      </c>
+      <c r="E278" t="n">
+        <v>200.3071175685263</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:55</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>5</v>
+      </c>
+      <c r="E279" t="n">
+        <v>201.8297436972999</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:55</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>5</v>
+      </c>
+      <c r="E280" t="n">
+        <v>187.251983724293</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:55</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>6</v>
+      </c>
+      <c r="E281" t="n">
+        <v>228.6570782489025</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:55</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>6</v>
+      </c>
+      <c r="E282" t="n">
+        <v>237.1753566712964</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>6</v>
+      </c>
+      <c r="E283" t="n">
+        <v>230.5968659629584</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>6</v>
+      </c>
+      <c r="E284" t="n">
+        <v>208.3126059770987</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>6</v>
+      </c>
+      <c r="E285" t="n">
+        <v>260.1970686390748</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>6</v>
+      </c>
+      <c r="E286" t="n">
+        <v>182.7437561640268</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>6</v>
+      </c>
+      <c r="E287" t="n">
+        <v>243.5691606686808</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>6</v>
+      </c>
+      <c r="E288" t="n">
+        <v>243.6342959024425</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>6</v>
+      </c>
+      <c r="E289" t="n">
+        <v>205.6373444355033</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>7</v>
+      </c>
+      <c r="E290" t="n">
+        <v>249.5969279560861</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>7</v>
+      </c>
+      <c r="E291" t="n">
+        <v>285.8634722267657</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>7</v>
+      </c>
+      <c r="E292" t="n">
+        <v>273.1887689202404</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>7</v>
+      </c>
+      <c r="E293" t="n">
+        <v>273.9261433512658</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>7</v>
+      </c>
+      <c r="E294" t="n">
+        <v>288.4366937072976</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>7</v>
+      </c>
+      <c r="E295" t="n">
+        <v>190.6306695265143</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>7</v>
+      </c>
+      <c r="E296" t="n">
+        <v>250.6098131171714</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:56</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>7</v>
+      </c>
+      <c r="E297" t="n">
+        <v>263.7792029968275</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>7</v>
+      </c>
+      <c r="E298" t="n">
+        <v>229.6118502193488</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>8</v>
+      </c>
+      <c r="E299" t="n">
+        <v>322.3237176708377</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>8</v>
+      </c>
+      <c r="E300" t="n">
+        <v>305.1582250003528</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>8</v>
+      </c>
+      <c r="E301" t="n">
+        <v>281.9208288628643</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>8</v>
+      </c>
+      <c r="E302" t="n">
+        <v>277.0060064717517</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>8</v>
+      </c>
+      <c r="E303" t="n">
+        <v>296.4978510275189</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>8</v>
+      </c>
+      <c r="E304" t="n">
+        <v>279.3726674721478</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>8</v>
+      </c>
+      <c r="E305" t="n">
+        <v>318.8843359238567</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>8</v>
+      </c>
+      <c r="E306" t="n">
+        <v>296.8408977681228</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>8</v>
+      </c>
+      <c r="E307" t="n">
+        <v>256.7669239621679</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>10</v>
+      </c>
+      <c r="E308" t="n">
+        <v>421.4915437901693</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>10</v>
+      </c>
+      <c r="E309" t="n">
+        <v>368.0817724479903</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>10</v>
+      </c>
+      <c r="E310" t="n">
+        <v>331.3347063656402</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>10</v>
+      </c>
+      <c r="E311" t="n">
+        <v>350.5028325657359</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>10</v>
+      </c>
+      <c r="E312" t="n">
+        <v>306.6353534992962</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>10</v>
+      </c>
+      <c r="E313" t="n">
+        <v>283.0170036981232</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>10</v>
+      </c>
+      <c r="E314" t="n">
+        <v>421.9030965566371</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>10</v>
+      </c>
+      <c r="E315" t="n">
+        <v>416.3691942762995</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:57</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>10</v>
+      </c>
+      <c r="E316" t="n">
+        <v>303.1124141631078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
